--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77218.84167468749</v>
+        <v>5151068.34050911</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77218.84167468749</v>
+        <v>5151068.34050911</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959639662.280672</v>
+        <v>36475060.29948013</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10972.74184073826</v>
+        <v>973626.3596288592</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20376.3679184813</v>
+        <v>1675448.609748878</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29778.42807116574</v>
+        <v>2377270.859868896</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39371.78189837092</v>
+        <v>3078389.686338125</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48965.1357255761</v>
+        <v>3779508.512807354</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58558.48660246353</v>
+        <v>4480627.339276583</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>68151.78738175095</v>
+        <v>5181746.165745808</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77745.1382586384</v>
+        <v>5882864.992215033</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>87338.49208584359</v>
+        <v>6583983.818684258</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>96931.84591304879</v>
+        <v>7285102.645153482</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>106525.199740254</v>
+        <v>7986221.471622707</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116118.5535674592</v>
+        <v>8687340.298091937</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>125711.9044443466</v>
+        <v>9388459.12456117</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135305.2582715518</v>
+        <v>10089577.9510304</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>144898.6120987571</v>
+        <v>10790696.77749964</v>
       </c>
     </row>
   </sheetData>
